--- a/Development/ms standards.xlsx
+++ b/Development/ms standards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myuser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\شرکت\99.Fardap\جلسات هفتگی کارگروه زیرساخت\گزارش ماژولها\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4110"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation Tier" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>کلاسهای سرویس باید انوتیشن @Transactional را داشته باشند</t>
   </si>
@@ -85,6 +85,29 @@
   </si>
   <si>
     <t>لینک</t>
+  </si>
+  <si>
+    <t>تست</t>
+  </si>
+  <si>
+    <t>برای تمام متدهای کنترلر متد تست نوشته شود</t>
+  </si>
+  <si>
+    <t>در تمام کلاسهای تست کنترلر از انوتیشنهای سطح کلاس زیر استفاده شود:
+@SpringBootTest(webEnvironment = SpringBootTest.WebEnvironment.RANDOM_PORT)
+@ActiveProfiles("dev")
+@TestMethodOrder(MethodOrderer.OrderAnnotation.class)
+@TestInstance(TestInstance.Lifecycle.PER_CLASS)</t>
+  </si>
+  <si>
+    <t>از انوتیشن @LocalServerPort برای دریافت پورت رندوم در بالای متغیر port استفاده شود تا عدد پورت رندوم در متغیر آن پر شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از RestTemplate برای ارسال درخواستهای وبی تست به سرور به صورت زیر استفاده گردد و برای ارسال درخواست create از postForObject و برای ارسال درخواست read از getForObject و برای ارسال درخواست update از getForObject و برای ارسال درخواست delete از getForObject استفاده شود:
+    @Autowired
+    private TestRestTemplate restTemplate;
+restTemplate.postForObject
+</t>
   </si>
 </sst>
 </file>
@@ -122,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,11 +168,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,9 +217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -172,10 +229,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,83 +552,115 @@
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -567,7 +679,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,65 +690,68 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5">
         <v>1.2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="5">
         <v>1.3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2.1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -647,47 +762,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Development/ms standards.xlsx
+++ b/Development/ms standards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\شرکت\99.Fardap\جلسات هفتگی کارگروه زیرساخت\گزارش ماژولها\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\googleDrive\me\work\github\motaharinia\learning\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Presentation Tier" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>از انوتیشن @LocalServerPort برای دریافت پورت رندوم در بالای متغیر port استفاده شود تا عدد پورت رندوم در متغیر آن پر شود</t>
   </si>
   <si>
-    <t xml:space="preserve">از RestTemplate برای ارسال درخواستهای وبی تست به سرور به صورت زیر استفاده گردد و برای ارسال درخواست create از postForObject و برای ارسال درخواست read از getForObject و برای ارسال درخواست update از getForObject و برای ارسال درخواست delete از getForObject استفاده شود:
+    <t xml:space="preserve">از RestTemplate برای ارسال درخواستهای وبی تست به سرور به صورت زیر استفاده گردد و برای ارسال درخواست create از postForObject و برای ارسال درخواست read از getForObject و برای ارسال درخواست update و delete از restTemplate.exchange استفاده شود:
     @Autowired
     private TestRestTemplate restTemplate;
 restTemplate.postForObject
@@ -230,31 +230,33 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,8 +543,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +581,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5">
@@ -591,7 +593,7 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -601,7 +603,7 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -611,7 +613,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>2.4</v>
       </c>
@@ -621,7 +623,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>2.5</v>
       </c>
@@ -631,40 +633,51 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>3.1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10">
         <v>3.2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10">
         <v>3.3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -705,7 +718,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5">
@@ -717,7 +730,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="5">
         <v>1.2</v>
       </c>
@@ -727,7 +740,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>1.3</v>
       </c>
@@ -771,7 +784,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,7 +792,7 @@
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">

--- a/Development/ms standards.xlsx
+++ b/Development/ms standards.xlsx
@@ -239,24 +239,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +544,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5">
@@ -593,7 +593,7 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -613,7 +613,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5">
         <v>2.4</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5">
         <v>2.5</v>
       </c>
@@ -633,43 +633,43 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10">
         <v>3.1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="10">
         <v>3.2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="10">
         <v>3.3</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="10">
         <v>3.4</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="7"/>
@@ -718,7 +718,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5">
@@ -730,7 +730,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5">
         <v>1.2</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5">
         <v>1.3</v>
       </c>

--- a/Development/ms standards.xlsx
+++ b/Development/ms standards.xlsx
@@ -15,13 +15,14 @@
     <sheet name="Presentation Tier" sheetId="2" r:id="rId1"/>
     <sheet name="Business Tier" sheetId="1" r:id="rId2"/>
     <sheet name="Persistence Tier" sheetId="3" r:id="rId3"/>
+    <sheet name="general" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Business Tier'!$A:$D</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Persistence Tier'!$A:$D</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Presentation Tier'!$A:$D</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t>کلاسهای سرویس باید انوتیشن @Transactional را داشته باشند</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>در متدهای سرویس سعی شود از trycatch استفاده نشود چون در صورت بروز خطا در میانه متد مقداری از اطلاعات در دیتابیس ثبت میشود و کامل عملیات در دیتابیس ثبت نمیشود. بهتر است متدهای سرویس اکسپشن را throw کنند و اجازه دهیم تراکنش rollback شود و اطلاعات نصفه ثبت شده حذف شود و مدیریت اکسپشن را که به سمت کلاینت برود یا کار دیگر در کنترلر انجام دهیم</t>
   </si>
@@ -70,9 +68,6 @@
   </si>
   <si>
     <t>افعال و نسخه API ها</t>
-  </si>
-  <si>
-    <t>در کنترلرها تمام متدها از قابلیت نسخه API در هدر استفاده کنند</t>
   </si>
   <si>
     <t>دسته بندی</t>
@@ -103,18 +98,89 @@
     <t>از انوتیشن @LocalServerPort برای دریافت پورت رندوم در بالای متغیر port استفاده شود تا عدد پورت رندوم در متغیر آن پر شود</t>
   </si>
   <si>
-    <t xml:space="preserve">از RestTemplate برای ارسال درخواستهای وبی تست به سرور به صورت زیر استفاده گردد و برای ارسال درخواست create از postForObject و برای ارسال درخواست read از getForObject و برای ارسال درخواست update و delete از restTemplate.exchange استفاده شود:
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>برای تمام متدهای کنترلرها تست یونیت شبیه سمپل های موجود نوشته شود.</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>در پکیج presentation دیگر پکیجهای controller و model ساخته نشوند و کنترلر و مدل هر ماژول را داخل پکیج خودشان شبیه سمپل های موجود بگذارند.</t>
+  </si>
+  <si>
+    <t>مسیر فایلهای proto پروژه ها را در پوشه proto در resources نگهداری شود و در بالای فایلهای proto آدرس پکیج را داخل پکیج سرویس به همراه پکیج stub در انتهای آن ست شوند.</t>
+  </si>
+  <si>
+    <t>نام فایلهای proto مایکروسرویس حتما مشابه نام کلاسها کمل کیس باشد و در انتهایشان کلمه Micro داشته باشند تا بعد از ساخته شدن کلاس stub نام آنها  با کلاسهای انتیتی اشتباه نشوند( مثال برای سرویس یوزر : UserMicro.proto که بعد از ساخت کلاسهای stub مایکروسرویس کلاسهای UserMicro.java و UserGrpc.java ایجاد میشود )</t>
+  </si>
+  <si>
+    <t>متغیرها را از نوع wrapper در کلاسها و اینترفیسها تعریف شوند مثلا بجای int از Integer در تعریف متغیرها استفاده شوند که بتونند از ابزارهای اونها با زدن دات استفاده شوند.</t>
+  </si>
+  <si>
+    <t>حتما از IDE توسعه Intellij استفاده شود تا بهتر بتوان توسعه و خطاها را بررسی کرد.</t>
+  </si>
+  <si>
+    <t>برای هر انتیتی یک اینترفیس ریپازیتوری باید ساخته شود و از اینترفیس های  JpaRepository, JpaSpecificationExecutorWithProjection 
+باید extend شوند.مثال 
+extends JpaRepository&lt;AdminUser, Integer&gt;, JpaSpecificationExecutorWithProjection&lt;AdminUser&gt;</t>
+  </si>
+  <si>
+    <t>برای بالاتر بردن سرعت کوئری از متدهای کوئری ریپازیتوری استفاده کنند و نام این متدها در ریپازیتوری ها با arrayListBy شروع شوند،
+ و در ادامه نام با کلمه By در نام نشان بدهند که توسط چه ورودی هایی سرچ انجام میشود.</t>
+  </si>
+  <si>
+    <t>متدهای findBy و findByAll با استاندارد نامگذاری jpaRepository را بجای متدهای entityFind و entityListBy قبلی استفاده شوند که خروجی آنها انتیتی و لیست انتیتی می باشد.</t>
+  </si>
+  <si>
+    <t>بالای تمام اینترفیسها ، کلاسها و اینام ها و متدها و متغیرهای داخل اونها باید javadoc بنویسند و اگر توضیح بالای javadoc شان بیشتر از
+ یک خط است انتهای خط تگ br گذاشته شود.</t>
+  </si>
+  <si>
+    <t>تمام اینام های هر ماژول غیر از سرویسها در لایه business ، در کنار سرویس همان ماژول ایجاد شود.چون اینامها هم در لایه همسایه persistence و هم در لایه همسایه presentation استفاده میشوند.</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SearchFilterModel searchFilterModel = new SearchFilterModel();
+            searchFilterModel.setSearchRowView(SearchRowViewAdminUserBrief.class);
+            searchFilterModel.setPage(1);
+            searchFilterModel.setRows(10);
+            searchFilterModel.setRestrictionList(searchFilterRestrictionModelList);
+            searchFilterModel.setSortList(searchFilterSortModelList);</t>
+  </si>
+  <si>
+    <t>برای سرچ گرید در صورت داشتن کاندیشن  باید لیستی از مدل List&lt;SearchFilterRestrictionModel&gt; ساخته شود، سپس کاندیشن های مربوط به هر فیلد  را مشخص میکنیم.
+در صورتی که بخواهیم سورت روی فیلد بگذاریم باید لیستی از مدل  List&lt;SearchFilterSortModel&gt; searchFilterSortModelList را ایجاد نماییم.
+در نهایت یک شی از مدل SearchFilterModel را میسازیم و پارامترهای زیر را در آن ست میکنیم.</t>
+  </si>
+  <si>
+    <t>برای نمونه میتوانید از مثالهای موجود در پکیج تست کمک بگیرید</t>
+  </si>
+  <si>
+    <t>کلاسهای سرویس باید انوتیشن @Transactional(rollbackFor=Exception.class) را داشته باشند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از RestTemplate برای ارسال درخواستهای وبی تست به سرور به صورت زیر استفاده گردد و برای ارسال درخواست create  و برای ارسال درخواست read و برای ارسال درخواست update و delete از restTemplate.exchange استفاده شود:
     @Autowired
     private TestRestTemplate restTemplate;
-restTemplate.postForObject
+restTemplate.exchange
 </t>
+  </si>
+  <si>
+    <t>در کنترلرها تمام متدها از قابلیت نسخه API در URI استفاده کنند. نسخه ها از v1 شروع می شود . در ابتدای همه mapping ها در controller ها (v1/) قرار میگیرد . هر بار نسخه تغییر کرد متد دیگری می بایست در controller با mapping نسخه جدید اضافه شود. و همچنین در متدهای تست نسخه API در URI می بایست رعایت شود.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +195,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,40 +307,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,143 +640,246 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B13" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -689,13 +891,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
@@ -705,61 +907,73 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
         <v>2.1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -775,35 +989,119 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="111" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>